--- a/inputExample.xlsx
+++ b/inputExample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MA\PycharmProjects\automation3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MA\PycharmProjects\Matrix1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A26086-7EEE-4CED-8B81-1756F61102F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0679270-AEDA-4E4A-BC19-A20CBEE98FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,6 +1714,9 @@
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
@@ -1896,6 +1899,9 @@
       </c>
       <c r="D30" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1959,6 +1965,9 @@
       </c>
       <c r="D32" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>

--- a/inputExample.xlsx
+++ b/inputExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MA\PycharmProjects\Matrix1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0679270-AEDA-4E4A-BC19-A20CBEE98FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BC8D25-1594-4B17-83D6-66AAE54249A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,9 +847,7 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="W4" s="6">
-        <v>1</v>
-      </c>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -879,7 +877,9 @@
       <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
       <c r="M5" s="6">
         <v>1</v>
       </c>
@@ -925,9 +925,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="6"/>
-      <c r="W6" s="6">
-        <v>1</v>
-      </c>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -950,7 +948,9 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
@@ -988,9 +988,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6">
         <v>1</v>
@@ -1000,9 +998,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
+      <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6">
         <v>1</v>
@@ -1028,12 +1024,8 @@
         <v>1</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1041,13 +1033,9 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1074,9 +1062,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="6">
@@ -1086,21 +1072,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6">
-        <v>1</v>
-      </c>
+      <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6">
-        <v>1</v>
-      </c>
+      <c r="X10" s="6"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1115,27 +1093,29 @@
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
       <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
+      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
+      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1160,32 +1140,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
+      <c r="L12" s="6"/>
       <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
+      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6">
-        <v>1</v>
-      </c>
-      <c r="W12" s="6">
-        <v>1</v>
-      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
       <c r="X12" s="6">
         <v>1</v>
       </c>
@@ -1213,24 +1183,22 @@
       <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
+      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6">
-        <v>1</v>
-      </c>
+      <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="X13" s="6"/>
     </row>
@@ -1249,18 +1217,14 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6">
         <v>1</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1303,24 +1267,16 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6">
-        <v>1</v>
-      </c>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6">
         <v>1</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6">
-        <v>1</v>
-      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1339,13 +1295,9 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6">
         <v>1</v>
@@ -1355,9 +1307,7 @@
       <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1382,24 +1332,22 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
       <c r="M17" s="6"/>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
+      <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6">
-        <v>1</v>
-      </c>
+      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6">
         <v>1</v>
@@ -1421,24 +1369,18 @@
       <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6">
         <v>1</v>
@@ -1448,9 +1390,7 @@
       <c r="V18" s="6">
         <v>1</v>
       </c>
-      <c r="X18" s="6">
-        <v>1</v>
-      </c>
+      <c r="X18" s="6"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1465,29 +1405,21 @@
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6">
-        <v>1</v>
-      </c>
+      <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6">
-        <v>1</v>
-      </c>
+      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6">
@@ -1496,9 +1428,7 @@
       <c r="V19" s="6">
         <v>1</v>
       </c>
-      <c r="X19" s="6">
-        <v>1</v>
-      </c>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1517,20 +1447,14 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
+      <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1558,37 +1482,31 @@
         <v>1</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
       <c r="J21" s="6">
         <v>1</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
       <c r="M21" s="6">
         <v>1</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6">
-        <v>1</v>
-      </c>
+      <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="6">
-        <v>1</v>
-      </c>
+      <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="X21" s="6">
-        <v>1</v>
-      </c>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1608,26 +1526,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -1647,29 +1555,29 @@
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="6">
-        <v>1</v>
-      </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <v>1</v>
-      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
+      <c r="V23" s="6"/>
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -1691,15 +1599,11 @@
         <v>1</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="6">
-        <v>1</v>
-      </c>
+      <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="X24" s="6">
-        <v>1</v>
-      </c>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1722,17 +1626,20 @@
       <c r="H25" s="6">
         <v>1</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" s="6">
         <v>1</v>
       </c>
       <c r="K25" s="6"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6">
-        <v>1</v>
-      </c>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -1757,7 +1664,6 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="O26" s="6"/>
@@ -1770,9 +1676,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6">
-        <v>1</v>
-      </c>
+      <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="X26" s="6"/>
     </row>
@@ -1790,36 +1694,22 @@
         <v>24</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
+      <c r="K27" s="6"/>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="6">
-        <v>1</v>
-      </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="X27" s="6">
-        <v>1</v>
-      </c>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1837,7 +1727,6 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
       <c r="J28" s="6">
         <v>1</v>
       </c>
@@ -1850,16 +1739,10 @@
         <v>1</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
-        <v>1</v>
-      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6">
-        <v>1</v>
-      </c>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1878,12 +1761,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
@@ -1905,26 +1783,25 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30" s="6">
         <v>1</v>
       </c>
       <c r="K30" s="6"/>
+      <c r="L30">
+        <v>1</v>
+      </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6">
-        <v>1</v>
-      </c>
+      <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6">
-        <v>1</v>
-      </c>
+      <c r="W30" s="6"/>
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -1943,7 +1820,6 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="S31" s="6"/>
@@ -1973,18 +1849,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="K32" s="6"/>
+      <c r="L32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
         <v>1</v>
       </c>
       <c r="S32" s="6"/>
@@ -1992,9 +1866,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="6">
-        <v>1</v>
-      </c>
+      <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6">
         <v>1</v>
@@ -2018,16 +1890,13 @@
         <v>1</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6">
-        <v>1</v>
-      </c>
+      <c r="W33" s="6"/>
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -2048,13 +1917,8 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
+      <c r="K34" s="6"/>
       <c r="S34" s="6">
         <v>1</v>
       </c>
@@ -2088,24 +1952,18 @@
       <c r="H35" s="6">
         <v>1</v>
       </c>
-      <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="P35" s="6">
-        <v>1</v>
-      </c>
+      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6">
-        <v>1</v>
-      </c>
+      <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6">
         <v>1</v>
@@ -2125,17 +1983,18 @@
       <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6">
+      <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" s="6"/>
@@ -2168,33 +2027,19 @@
         <v>1</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="6">
-        <v>1</v>
-      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
+      <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="6">
-        <v>1</v>
-      </c>
+      <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="S37" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="6"/>
+      <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="6">
-        <v>1</v>
-      </c>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -2209,18 +2054,13 @@
       <c r="D38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6">
-        <v>1</v>
-      </c>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="6">
-        <v>1</v>
-      </c>
+      <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -2239,21 +2079,18 @@
       <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="6">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="6">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6">
-        <v>1</v>
-      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="S39" s="6">
-        <v>1</v>
-      </c>
+      <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6">
@@ -2277,14 +2114,8 @@
       <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6">
-        <v>1</v>
-      </c>
+      <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -2308,10 +2139,6 @@
       <c r="D41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -2319,13 +2146,9 @@
       <c r="Q41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="6">
-        <v>1</v>
-      </c>
+      <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6">
-        <v>1</v>
-      </c>
+      <c r="W41" s="6"/>
       <c r="X41" s="6"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
@@ -2341,13 +2164,10 @@
       <c r="D42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="6">
-        <v>1</v>
-      </c>
+      <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6">
@@ -2377,13 +2197,9 @@
         <v>1</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
+      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="L43" s="6">
-        <v>1</v>
-      </c>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -2398,9 +2214,7 @@
         <v>1</v>
       </c>
       <c r="W43" s="6"/>
-      <c r="X43" s="6">
-        <v>1</v>
-      </c>
+      <c r="X43" s="6"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -2421,12 +2235,12 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6">
-        <v>1</v>
-      </c>
+      <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -2437,9 +2251,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6">
-        <v>1</v>
-      </c>
+      <c r="W44" s="6"/>
       <c r="X44" s="6"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -2469,17 +2281,11 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="6">
-        <v>1</v>
-      </c>
+      <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="S45" s="6">
-        <v>1</v>
-      </c>
+      <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="6">
-        <v>1</v>
-      </c>
+      <c r="U45" s="6"/>
       <c r="V45" s="6">
         <v>1</v>
       </c>
@@ -2503,31 +2309,19 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
+      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="L46" s="6">
-        <v>1</v>
-      </c>
+      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="6">
-        <v>1</v>
-      </c>
-      <c r="O46" s="6">
-        <v>1</v>
-      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="6">
-        <v>1</v>
-      </c>
+      <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6">
-        <v>1</v>
-      </c>
+      <c r="W46" s="6"/>
       <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -2551,17 +2345,19 @@
       <c r="H47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="6"/>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
       <c r="J47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6">
+        <v>1</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6">
         <v>1</v>
       </c>
       <c r="O47" s="6"/>
-      <c r="P47" s="6">
-        <v>1</v>
-      </c>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -2587,9 +2383,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
+      <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -2601,9 +2395,7 @@
         <v>1</v>
       </c>
       <c r="T48" s="6"/>
-      <c r="U48" s="6">
-        <v>1</v>
-      </c>
+      <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6">
@@ -2629,9 +2421,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="L49" s="6">
-        <v>1</v>
-      </c>
+      <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6">
         <v>1</v>
@@ -2642,9 +2432,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="6"/>
-      <c r="T49" s="6">
-        <v>1</v>
-      </c>
+      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -2671,9 +2459,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
       <c r="J50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
       <c r="M50" s="6">
         <v>1</v>
       </c>
@@ -2686,13 +2478,9 @@
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="6">
-        <v>1</v>
-      </c>
+      <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-      <c r="X50" s="6">
-        <v>1</v>
-      </c>
+      <c r="X50" s="6"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -2718,20 +2506,14 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="6">
-        <v>1</v>
-      </c>
+      <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6">
         <v>1</v>
       </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="6">
-        <v>1</v>
-      </c>
-      <c r="U51" s="6">
-        <v>1</v>
-      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -2754,26 +2536,24 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6">
-        <v>1</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6">
-        <v>1</v>
-      </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6">
-        <v>1</v>
-      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="L52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="6">
-        <v>1</v>
-      </c>
+      <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6">
         <v>1</v>
